--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3790,10 +3790,8 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3827,10 +3825,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -3860,10 +3856,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -3881,10 +3875,8 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3902,10 +3894,8 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3927,10 +3917,8 @@
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -3956,10 +3944,8 @@
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -3985,10 +3971,8 @@
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -4014,10 +3998,8 @@
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4043,10 +4025,8 @@
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -4064,64 +4044,98 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMDEC</t>
+        </is>
+      </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1867K</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1870.0K</t>
+        </is>
+      </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>12:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4133,28 +4147,24 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4166,28 +4176,24 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>213K</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4199,28 +4205,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4232,28 +4230,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4265,24 +4255,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>62.8%</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4294,25 +4280,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
           <t>3</t>
@@ -4327,21 +4305,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>3</t>
@@ -4356,23 +4330,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>22K</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>29K</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -4389,23 +4359,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>135K</t>
-        </is>
-      </c>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>185K</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -4417,29 +4383,29 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4451,28 +4417,28 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4484,19 +4450,23 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -4508,26 +4478,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
           <t>3</t>
@@ -4537,26 +4503,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>4.245%</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
           <t>3</t>
@@ -4566,26 +4528,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
           <t>3</t>
@@ -4600,7 +4558,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -4616,18 +4574,18 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -4641,165 +4599,217 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/15</t>
+        </is>
+      </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.48M</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Housing StartsDEC</t>
+        </is>
+      </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4.110%</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr">
         <is>
           <t>3</t>
@@ -4809,22 +4819,26 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr">
         <is>
           <t>3</t>
@@ -4834,22 +4848,26 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr">
         <is>
           <t>3</t>
@@ -4859,22 +4877,26 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr">
         <is>
           <t>3</t>
@@ -4884,167 +4906,127 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>$-367B</t>
-        </is>
-      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>$-220.0B</t>
-        </is>
-      </c>
+      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>101.7</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
           <t>3</t>
@@ -5054,2086 +5036,15 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>146.8</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Fed Schmid Speech</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>08:35 PM</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>01:35 AM</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>-4.022M</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>6.99%</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>-3.7%</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>168.4</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>401.1</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/10</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>127.7</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>CPIDEC</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>315.49</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>315.6</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>CPI s.aDEC</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>316.441</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>317.4</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>-0.959M</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>6.33M</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>-2.502M</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>-0.167M</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>6.071M</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>-0.081M</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>-0.632M</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>0.045M</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Export Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Import Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>1867K</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>30.7</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>18.8</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJAN</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMNOV</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJAN</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>-40Bcf</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/16</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/16</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>9.93%</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/15</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -3790,10 +3790,8 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3827,10 +3825,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -3860,10 +3856,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -3881,10 +3875,8 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3902,10 +3894,8 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3927,10 +3917,8 @@
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -3956,10 +3944,8 @@
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -3985,10 +3971,8 @@
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -4014,10 +3998,8 @@
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4043,10 +4025,8 @@
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -4064,10 +4044,8 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="134">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4682,7 +4682,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
+          <t>Monday January 13 2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -4695,39 +4695,51 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
           <t>3</t>
@@ -4742,13 +4754,13 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>4.110%</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -4762,18 +4774,18 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>1.760B</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -4792,13 +4804,13 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -4817,13 +4829,13 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>1.98B</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -4837,96 +4849,104 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>1.98B</t>
-        </is>
-      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>$-220.0B</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>NFIB Business Optimism IndexDEC</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>101.7</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>$-220.0B</t>
+          <t>102</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>101.7</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4938,28 +4958,28 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4971,28 +4991,28 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5004,23 +5024,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>146.8</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -5037,19 +5053,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>146.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -5066,19 +5082,19 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -5095,19 +5111,23 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -5119,30 +5139,22 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
           <t>3</t>
@@ -5152,104 +5164,104 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>Fed Schmid Speech</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
+          <t>01:35 AM</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>01:35 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>-4.022M</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
@@ -5261,18 +5273,18 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-4.022M</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -5291,20 +5303,20 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5316,13 +5328,13 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>168.4</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -5341,13 +5353,13 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>168.4</t>
+          <t>401.1</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -5366,13 +5378,13 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>401.1</t>
+          <t>127.7</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -5386,46 +5398,54 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>127.7</t>
-        </is>
-      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5437,23 +5457,19 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -5470,19 +5486,23 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -5499,23 +5519,19 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -5532,24 +5548,24 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>315.49</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>315.6</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5561,19 +5577,19 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>316.441</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>315.6</t>
+          <t>317.4</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -5590,19 +5606,19 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>317.4</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -5614,26 +5630,18 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
+      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
           <t>2</t>
@@ -5643,16 +5651,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
@@ -5669,13 +5681,13 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>6.33M</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -5694,20 +5706,20 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>6.33M</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5719,13 +5731,13 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>-2.502M</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -5744,13 +5756,13 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-2.502M</t>
+          <t>-0.167M</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -5769,13 +5781,13 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-0.167M</t>
+          <t>6.071M</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -5794,13 +5806,13 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>6.071M</t>
+          <t>-0.081M</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -5819,13 +5831,13 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-0.081M</t>
+          <t>-0.632M</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -5844,13 +5856,13 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-0.632M</t>
+          <t>0.045M</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -5864,107 +5876,115 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>0.045M</t>
-        </is>
-      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>4.190%</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Fed Golsbee Speech</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5974,28 +5994,24 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
         <is>
           <t>0.5%</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6007,19 +6023,19 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -6036,19 +6052,19 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>201K</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>209.0K</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -6065,19 +6081,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>201K</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>209.0K</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -6094,19 +6110,23 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -6123,28 +6143,24 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1867K</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1870.0K</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6156,19 +6172,19 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1870.0K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -6185,19 +6201,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -6214,19 +6230,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -6243,21 +6259,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
+      <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
         <is>
           <t>3</t>
@@ -6272,13 +6284,13 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -6297,13 +6309,13 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -6322,13 +6334,13 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -6347,13 +6359,13 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -6372,17 +6384,21 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr">
         <is>
           <t>3</t>
@@ -6397,19 +6413,19 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -6421,29 +6437,33 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6455,23 +6475,23 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -6488,58 +6508,50 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-40Bcf</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr">
         <is>
           <t>3</t>
@@ -6549,18 +6561,18 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
+          <t>4.245%</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -6579,13 +6591,13 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>4.245%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -6599,20 +6611,16 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
@@ -6629,11 +6637,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr">
@@ -6645,59 +6657,63 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/16</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>9.93%</t>
-        </is>
-      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/15</t>
+        </is>
+      </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1.48M</t>
+        </is>
+      </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6709,19 +6725,23 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -6738,28 +6758,24 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6771,19 +6787,19 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -6795,24 +6811,28 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -6829,28 +6849,28 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6862,23 +6882,19 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -6895,19 +6911,19 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -6924,19 +6940,19 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -6948,26 +6964,18 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr">
         <is>
           <t>3</t>
@@ -6982,7 +6990,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -6998,36 +7006,40 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsNOV</t>
+        </is>
+      </c>
       <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7037,20 +7049,20 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7062,13 +7074,13 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -7082,40 +7094,15 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5956,33 +5956,21 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5994,16 +5982,20 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F208" t="inlineStr">
         <is>
           <t>0.5%</t>
@@ -6011,7 +6003,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6023,19 +6015,19 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -6052,19 +6044,19 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>201K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>209.0K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -6081,19 +6073,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-16.4</t>
+          <t>201K</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>209.0K</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -6110,23 +6102,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -6143,24 +6131,28 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>1867K</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1870.0K</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6172,19 +6164,19 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1867K</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>1870.0K</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -6201,19 +6193,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -6230,19 +6222,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>215.0K</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -6259,17 +6251,21 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>215.0K</t>
+        </is>
+      </c>
       <c r="G217" t="inlineStr">
         <is>
           <t>3</t>
@@ -6284,13 +6280,13 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -6309,13 +6305,13 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -6334,13 +6330,13 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -6359,13 +6355,13 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -6384,21 +6380,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
           <t>3</t>
@@ -6413,19 +6405,19 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -6437,33 +6429,29 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6475,23 +6463,23 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -6508,50 +6496,58 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G227" t="inlineStr">
         <is>
           <t>3</t>
@@ -6561,18 +6557,18 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>4.245%</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -6591,13 +6587,13 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>4.245%</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -6611,16 +6607,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
@@ -6637,13 +6637,13 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -6657,63 +6657,59 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
       <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/15</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
+      <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6725,23 +6721,19 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -6758,24 +6750,28 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6787,19 +6783,19 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -6811,28 +6807,24 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -6849,28 +6841,28 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>77.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6882,19 +6874,23 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -6911,19 +6907,19 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -6940,19 +6936,19 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -6964,18 +6960,26 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G243" t="inlineStr">
         <is>
           <t>3</t>
@@ -6990,7 +6994,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -7006,40 +7010,36 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7049,20 +7049,20 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7074,13 +7074,13 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -7094,15 +7094,40 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr"/>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
       <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4578,11 +4578,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
@@ -4594,18 +4598,18 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -4619,18 +4623,18 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>1.98B</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -4644,31 +4648,39 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>482</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -4682,60 +4694,56 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Balance SheetJAN/08</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>$6.85T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -4749,47 +4757,39 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>4.110%</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr">
         <is>
           <t>3</t>
@@ -4799,18 +4799,18 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -4824,18 +4824,18 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>4.110%</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -5214,54 +5214,54 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>4.245%</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>01:35 AM</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:35 AM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>-4.022M</t>
-        </is>
-      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
@@ -5273,18 +5273,18 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>-4.022M</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -5303,20 +5303,20 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5328,13 +5328,13 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>168.4</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -5353,13 +5353,13 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>401.1</t>
+          <t>168.4</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -5378,13 +5378,13 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>127.7</t>
+          <t>401.1</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -5398,21 +5398,25 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>127.7</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5630,12 +5634,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:50 PM</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -5651,20 +5655,16 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>-0.959M</t>
-        </is>
-      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
@@ -5681,13 +5681,13 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>6.33M</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -5706,20 +5706,20 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>6.33M</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5731,13 +5731,13 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-2.502M</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -5756,13 +5756,13 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-0.167M</t>
+          <t>-2.502M</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -5781,13 +5781,13 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>6.071M</t>
+          <t>-0.167M</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -5806,13 +5806,13 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-0.081M</t>
+          <t>6.071M</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -5831,13 +5831,13 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-0.632M</t>
+          <t>-0.081M</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -5856,13 +5856,13 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.045M</t>
+          <t>-0.632M</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -5876,92 +5876,104 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.045M</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Fed Golsbee Speech</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>4.190%</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Fed Golsbee Speech</t>
+        </is>
+      </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -5977,62 +5989,34 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6044,24 +6028,28 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6073,19 +6061,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>201K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>209.0K</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -6102,19 +6090,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-16.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -6131,23 +6119,19 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>201K</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>209.0K</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -6164,24 +6148,24 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1870.0K</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6193,24 +6177,28 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6222,19 +6210,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1867K</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1870.0K</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -6251,19 +6239,19 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>215.0K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -6280,17 +6268,21 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G218" t="inlineStr">
         <is>
           <t>3</t>
@@ -6305,17 +6297,21 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>215.0K</t>
+        </is>
+      </c>
       <c r="G219" t="inlineStr">
         <is>
           <t>3</t>
@@ -6330,13 +6326,13 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -6355,13 +6351,13 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -6380,13 +6376,13 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -6405,21 +6401,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr">
         <is>
           <t>3</t>
@@ -6434,21 +6426,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
           <t>3</t>
@@ -6458,25 +6446,21 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -6484,40 +6468,36 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6529,7 +6509,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -6550,54 +6530,70 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G229" t="inlineStr">
         <is>
           <t>3</t>
@@ -6607,18 +6603,18 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -6632,18 +6628,18 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>4.245%</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -6657,18 +6653,18 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -6682,29 +6678,45 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
       <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>6.14%</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
@@ -6716,62 +6728,34 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6783,24 +6767,24 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6812,52 +6796,52 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -6869,33 +6853,29 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6907,24 +6887,28 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6936,19 +6920,23 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -6965,19 +6953,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -6989,18 +6977,26 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G244" t="inlineStr">
         <is>
           <t>3</t>
@@ -7010,18 +7006,26 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G245" t="inlineStr">
         <is>
           <t>3</t>
@@ -7031,65 +7035,57 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
+        </is>
+      </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7099,35 +7095,85 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr"/>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
       <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -4114,10 +4114,14 @@
           <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>256K</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>212K</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4147,7 +4151,11 @@
           <t>Unemployment RateDEC</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>4.2%</t>
@@ -4180,7 +4188,11 @@
           <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -4213,7 +4225,11 @@
           <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>4%</t>
@@ -4246,7 +4262,11 @@
           <t>Participation RateDEC</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>62.5%</t>
@@ -4275,7 +4295,11 @@
           <t>Average Weekly HoursDEC</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>34.3</t>
@@ -4308,10 +4332,14 @@
           <t>Government PayrollsDEC</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>30K</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -4337,10 +4365,14 @@
           <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>-13K</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4370,10 +4402,14 @@
           <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>223K</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>194K</t>
+          <t>182K</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4403,10 +4439,14 @@
           <t>U-6 Unemployment Rate</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -4472,7 +4472,11 @@
           <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>74.0</t>
@@ -4505,7 +4509,11 @@
           <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>3%</t>
@@ -4534,7 +4542,11 @@
           <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>73.3</t>
@@ -4563,7 +4575,11 @@
           <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>75.1</t>
@@ -4592,7 +4608,11 @@
           <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>2.8%</t>
@@ -4945,7 +4965,11 @@
           <t>101.7</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>100.8</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>102</t>
@@ -5239,7 +5263,11 @@
           <t>54</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>55.1</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>54.2</t>
@@ -5479,7 +5507,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -5510,7 +5538,11 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr">
         <is>
           <t>3.3%</t>
@@ -5572,7 +5604,11 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr">
         <is>
           <t>2.9%</t>
@@ -5659,7 +5695,11 @@
           <t>0.20</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>-1.8</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
           <t>0.15</t>
@@ -6168,7 +6208,11 @@
           <t>201K</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
       <c r="F213" t="inlineStr">
         <is>
           <t>209.0K</t>
@@ -6197,7 +6241,11 @@
           <t>-16.4</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="F214" t="inlineStr">
         <is>
           <t>-10</t>
@@ -6816,7 +6864,11 @@
           <t>1.493M</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
           <t>1.48M</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -4641,7 +4641,11 @@
           <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>12.074B</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>1.760B</t>
@@ -4666,7 +4670,11 @@
           <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3.1B</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>0.342B</t>
@@ -4691,7 +4699,11 @@
           <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1.57B</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>1.98B</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-20.xlsx
@@ -4749,7 +4749,11 @@
           <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>482</t>
@@ -4774,7 +4778,11 @@
           <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>588</t>
@@ -7148,7 +7156,11 @@
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr">
@@ -7169,7 +7181,11 @@
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
